--- a/docs/excel/テーブル定義書.xlsx
+++ b/docs/excel/テーブル定義書.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fairs" sheetId="1" r:id="rId1"/>
     <sheet name="fair_gnavis" sheetId="4" r:id="rId2"/>
     <sheet name="fair_mweds" sheetId="5" r:id="rId3"/>
+    <sheet name="fair_mynavis" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="717">
   <si>
     <t>データベース名</t>
     <rPh sb="6" eb="7">
@@ -3308,6 +3309,1588 @@
     <rPh sb="17" eb="19">
       <t>フヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_mynavis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェアタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア紹介文</t>
+    <rPh sb="3" eb="5">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像キャプション</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開催会場</t>
+    <rPh sb="0" eb="2">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所在地</t>
+    <rPh sb="0" eb="3">
+      <t>ショザイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所在地備考</t>
+    <rPh sb="0" eb="3">
+      <t>ショザイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約受付</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネット予約・日前</t>
+    <rPh sb="3" eb="5">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネット予約・時</t>
+    <rPh sb="3" eb="5">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話予約・日前</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会場その他情報</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数部制</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部数</t>
+    <rPh sb="0" eb="2">
+      <t>ブスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1部開始・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1部開始・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1部終了・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1部終了・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2部開始・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2部開始・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2部終了・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2部終了・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3部開始・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3部開始・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3部終了・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3部終了・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4部開始・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4部開始・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4部終了・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4部終了・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5部開始・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5部開始・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5部終了・時</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5部終了・分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所用時間・時</t>
+    <rPh sb="0" eb="2">
+      <t>ショヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所用時間・分</t>
+    <rPh sb="0" eb="2">
+      <t>ショヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア内容選択不可</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：有料無料</t>
+    <rPh sb="5" eb="7">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：予約</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：その他</t>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：円/人</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：開始・時</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：開始・分</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：終了・時</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：終了・分</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア1：補足</t>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：その他</t>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：予約</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：有料無料</t>
+    <rPh sb="5" eb="7">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：円/人</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：開始・時</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：開始・分</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：終了・時</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：終了・分</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア2：補足</t>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：その他</t>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：予約</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：有料無料</t>
+    <rPh sb="5" eb="7">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：円/人</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：開始・時</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：開始・分</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：終了・時</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：終了・分</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア3：補足</t>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：その他</t>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：予約</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：有料無料</t>
+    <rPh sb="5" eb="7">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：円/人</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：開始・時</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：開始・分</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：終了・時</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：終了・分</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア4：補足</t>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：その他</t>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：予約</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：有料無料</t>
+    <rPh sb="5" eb="7">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：円/人</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：開始・時</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：開始・分</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：終了・時</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：終了・分</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア5：補足</t>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：その他</t>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：予約</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：有料無料</t>
+    <rPh sb="5" eb="7">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：円/人</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：開始・時</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：開始・分</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：終了・時</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：終了・分</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア6：補足</t>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：その他</t>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：予約</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：有料無料</t>
+    <rPh sb="5" eb="7">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：円/人</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：開始・時</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：開始・分</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：終了・時</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：終了・分</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェア7：補足</t>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>access_data_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>access_location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>access_location_note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>access_etc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_limit_net_div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_limit_time_net</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_limit_tel_div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_limit_time_tel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target_note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etc_note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>special_note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plura_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_open_time_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_hour1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_minute1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_hour1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_minute1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_hour2</t>
+  </si>
+  <si>
+    <t>start_minute2</t>
+  </si>
+  <si>
+    <t>end_hour2</t>
+  </si>
+  <si>
+    <t>end_minute2</t>
+  </si>
+  <si>
+    <t>start_hour3</t>
+  </si>
+  <si>
+    <t>start_minute3</t>
+  </si>
+  <si>
+    <t>end_hour3</t>
+  </si>
+  <si>
+    <t>end_minute3</t>
+  </si>
+  <si>
+    <t>start_hour4</t>
+  </si>
+  <si>
+    <t>start_minute4</t>
+  </si>
+  <si>
+    <t>end_hour4</t>
+  </si>
+  <si>
+    <t>end_minute4</t>
+  </si>
+  <si>
+    <t>start_hour5</t>
+  </si>
+  <si>
+    <t>start_minute5</t>
+  </si>
+  <si>
+    <t>end_hour5</t>
+  </si>
+  <si>
+    <t>end_minute5</t>
+  </si>
+  <si>
+    <t>need_hour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>need_minute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail_unselect_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_type_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_start_hour_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_start_minute_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_end_hour_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_end_minute_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_headline_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_complement_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_price_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_price_div_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_reserve_div_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_etc_note_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fair_detail_type_2</t>
+  </si>
+  <si>
+    <t>fair_detail_etc_note_2</t>
+  </si>
+  <si>
+    <t>fair_detail_reserve_div_2</t>
+  </si>
+  <si>
+    <t>fair_detail_price_div_2</t>
+  </si>
+  <si>
+    <t>fair_detail_price_2</t>
+  </si>
+  <si>
+    <t>fair_detail_start_hour_2</t>
+  </si>
+  <si>
+    <t>fair_detail_start_minute_2</t>
+  </si>
+  <si>
+    <t>fair_detail_end_hour_2</t>
+  </si>
+  <si>
+    <t>fair_detail_end_minute_2</t>
+  </si>
+  <si>
+    <t>fair_detail_headline_2</t>
+  </si>
+  <si>
+    <t>fair_detail_complement_2</t>
+  </si>
+  <si>
+    <t>fair_detail_type_3</t>
+  </si>
+  <si>
+    <t>fair_detail_etc_note_3</t>
+  </si>
+  <si>
+    <t>fair_detail_reserve_div_3</t>
+  </si>
+  <si>
+    <t>fair_detail_price_div_3</t>
+  </si>
+  <si>
+    <t>fair_detail_price_3</t>
+  </si>
+  <si>
+    <t>fair_detail_start_hour_3</t>
+  </si>
+  <si>
+    <t>fair_detail_start_minute_3</t>
+  </si>
+  <si>
+    <t>fair_detail_end_hour_3</t>
+  </si>
+  <si>
+    <t>fair_detail_end_minute_3</t>
+  </si>
+  <si>
+    <t>fair_detail_headline_3</t>
+  </si>
+  <si>
+    <t>fair_detail_complement_3</t>
+  </si>
+  <si>
+    <t>fair_detail_type_4</t>
+  </si>
+  <si>
+    <t>fair_detail_etc_note_4</t>
+  </si>
+  <si>
+    <t>fair_detail_reserve_div_4</t>
+  </si>
+  <si>
+    <t>fair_detail_price_div_4</t>
+  </si>
+  <si>
+    <t>fair_detail_price_4</t>
+  </si>
+  <si>
+    <t>fair_detail_start_hour_4</t>
+  </si>
+  <si>
+    <t>fair_detail_start_minute_4</t>
+  </si>
+  <si>
+    <t>fair_detail_end_hour_4</t>
+  </si>
+  <si>
+    <t>fair_detail_end_minute_4</t>
+  </si>
+  <si>
+    <t>fair_detail_headline_4</t>
+  </si>
+  <si>
+    <t>fair_detail_complement_4</t>
+  </si>
+  <si>
+    <t>fair_detail_type_5</t>
+  </si>
+  <si>
+    <t>fair_detail_etc_note_5</t>
+  </si>
+  <si>
+    <t>fair_detail_reserve_div_5</t>
+  </si>
+  <si>
+    <t>fair_detail_price_div_5</t>
+  </si>
+  <si>
+    <t>fair_detail_price_5</t>
+  </si>
+  <si>
+    <t>fair_detail_start_hour_5</t>
+  </si>
+  <si>
+    <t>fair_detail_start_minute_5</t>
+  </si>
+  <si>
+    <t>fair_detail_end_hour_5</t>
+  </si>
+  <si>
+    <t>fair_detail_end_minute_5</t>
+  </si>
+  <si>
+    <t>fair_detail_headline_5</t>
+  </si>
+  <si>
+    <t>fair_detail_complement_5</t>
+  </si>
+  <si>
+    <t>fair_detail_type_6</t>
+  </si>
+  <si>
+    <t>fair_detail_etc_note_6</t>
+  </si>
+  <si>
+    <t>fair_detail_reserve_div_6</t>
+  </si>
+  <si>
+    <t>fair_detail_price_div_6</t>
+  </si>
+  <si>
+    <t>fair_detail_price_6</t>
+  </si>
+  <si>
+    <t>fair_detail_start_hour_6</t>
+  </si>
+  <si>
+    <t>fair_detail_start_minute_6</t>
+  </si>
+  <si>
+    <t>fair_detail_end_hour_6</t>
+  </si>
+  <si>
+    <t>fair_detail_end_minute_6</t>
+  </si>
+  <si>
+    <t>fair_detail_headline_6</t>
+  </si>
+  <si>
+    <t>fair_detail_complement_6</t>
+  </si>
+  <si>
+    <t>fair_detail_type_7</t>
+  </si>
+  <si>
+    <t>fair_detail_etc_note_7</t>
+  </si>
+  <si>
+    <t>fair_detail_reserve_div_7</t>
+  </si>
+  <si>
+    <t>fair_detail_price_div_7</t>
+  </si>
+  <si>
+    <t>fair_detail_price_7</t>
+  </si>
+  <si>
+    <t>fair_detail_start_hour_7</t>
+  </si>
+  <si>
+    <t>fair_detail_start_minute_7</t>
+  </si>
+  <si>
+    <t>fair_detail_end_hour_7</t>
+  </si>
+  <si>
+    <t>fair_detail_end_minute_7</t>
+  </si>
+  <si>
+    <t>fair_detail_headline_7</t>
+  </si>
+  <si>
+    <t>fair_detail_complement_7</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(10) unsigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tinyint(3) unsigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=両方,2=ネット,3=電話</t>
+    <rPh sb="2" eb="4">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3=当日,2=前日,1=2日前,4=3日前,5=4日前,6=5日前,7=6日前,8=7日前,9=8日前,10=9日前,11=10日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3441,26 +5024,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3476,18 +5071,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3810,62 +5393,62 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="11">
         <v>41914</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -3873,31 +5456,31 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3923,7 +5506,7 @@
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5" t="b">
+      <c r="H9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="2"/>
@@ -5007,13 +6590,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5043,62 +6626,62 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="19">
         <v>41914</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -5106,1224 +6689,1224 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="17" t="b">
+      <c r="H9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="16">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="16">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
+      <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="16">
+      <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
+      <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="16">
+      <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>1</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
+      <c r="A18" s="6">
         <v>10</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="16">
+      <c r="A19" s="6">
         <v>11</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
+      <c r="A20" s="6">
         <v>12</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="16">
+      <c r="A21" s="6">
         <v>13</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+      <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="16">
+      <c r="A23" s="6">
         <v>15</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="16">
+      <c r="A24" s="6">
         <v>16</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="16">
+      <c r="A25" s="6">
         <v>17</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+      <c r="A26" s="6">
         <v>18</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+      <c r="A27" s="6">
         <v>19</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+      <c r="A28" s="6">
         <v>20</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="16">
+      <c r="A29" s="6">
         <v>21</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
+      <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="16">
+      <c r="A31" s="6">
         <v>23</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="16">
+      <c r="A32" s="6">
         <v>24</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="16">
+      <c r="A33" s="6">
         <v>25</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
+      <c r="A34" s="6">
         <v>26</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="16">
+      <c r="A35" s="6">
         <v>27</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="16">
+      <c r="A36" s="6">
         <v>28</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="16">
+      <c r="A37" s="6">
         <v>29</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="16">
+      <c r="A38" s="6">
         <v>30</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="16">
+      <c r="A39" s="6">
         <v>31</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
         <v>0</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="16">
+      <c r="A40" s="6">
         <v>32</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="16">
+      <c r="A41" s="6">
         <v>33</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6">
         <v>0</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="16">
+      <c r="A42" s="6">
         <v>34</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
         <v>0</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="16">
+      <c r="A43" s="6">
         <v>35</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6">
         <v>0</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="16">
+      <c r="A44" s="6">
         <v>36</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
         <v>0</v>
       </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="16">
+      <c r="A45" s="6">
         <v>37</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
         <v>0</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="16">
+      <c r="A46" s="6">
         <v>38</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6">
         <v>0</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="16">
+      <c r="A47" s="6">
         <v>39</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6">
         <v>0</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="16">
+      <c r="A48" s="6">
         <v>40</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="16"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="16">
+      <c r="A49" s="6">
         <v>41</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6">
         <v>0</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="16" t="s">
+      <c r="H49" s="7"/>
+      <c r="I49" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="16">
+      <c r="A50" s="6">
         <v>42</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
         <v>0</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16" t="s">
+      <c r="H50" s="7"/>
+      <c r="I50" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="16">
+      <c r="A51" s="6">
         <v>43</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6">
         <v>0</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="16">
+      <c r="A52" s="6">
         <v>44</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6">
         <v>0</v>
       </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="16">
+      <c r="A53" s="6">
         <v>45</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16">
+      <c r="F53" s="6"/>
+      <c r="G53" s="6">
         <v>0</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="16">
+      <c r="A54" s="6">
         <v>46</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6">
         <v>0</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="16">
+      <c r="A55" s="6">
         <v>47</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16">
+      <c r="F55" s="6"/>
+      <c r="G55" s="6">
         <v>0</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="16">
+      <c r="A56" s="6">
         <v>48</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6">
         <v>0</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="16"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="16">
+      <c r="A57" s="6">
         <v>49</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="16">
+      <c r="A58" s="6">
         <v>50</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="16"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="16">
+      <c r="A59" s="6">
         <v>51</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6">
         <v>0</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="7"/>
+      <c r="I59" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="16">
+      <c r="A60" s="6">
         <v>52</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="16">
+      <c r="A61" s="6">
         <v>53</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16" t="s">
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6335,8 +7918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6353,62 +7936,62 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="19">
         <v>41914</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -6416,2481 +7999,4746 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="17" t="b">
+      <c r="H9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="16">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="16">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
+      <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="16">
+      <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
+      <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>0</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="16">
+      <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
+      <c r="A18" s="6">
         <v>10</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="16">
+      <c r="A19" s="6">
         <v>11</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
+      <c r="A20" s="6">
         <v>12</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="16">
+      <c r="A21" s="6">
         <v>13</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>0</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+      <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>0</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="16">
+      <c r="A23" s="6">
         <v>15</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>0</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="16">
+      <c r="A24" s="6">
         <v>16</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>0</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="16">
+      <c r="A25" s="6">
         <v>17</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>0</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+      <c r="A26" s="6">
         <v>18</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>0</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+      <c r="A27" s="6">
         <v>19</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
         <v>0</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+      <c r="A28" s="6">
         <v>20</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="16">
+      <c r="A29" s="6">
         <v>21</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
+      <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="16">
+      <c r="A31" s="6">
         <v>23</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="16">
+      <c r="A32" s="6">
         <v>24</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="16">
+      <c r="A33" s="6">
         <v>25</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
+      <c r="A34" s="6">
         <v>26</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="16">
+      <c r="A35" s="6">
         <v>27</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="16">
+      <c r="A36" s="6">
         <v>28</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="16">
+      <c r="A37" s="6">
         <v>29</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="16">
+      <c r="A38" s="6">
         <v>30</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="16">
+      <c r="A39" s="6">
         <v>31</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="16">
+      <c r="A40" s="6">
         <v>32</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="16">
+      <c r="A41" s="6">
         <v>33</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="16">
+      <c r="A42" s="6">
         <v>34</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="16">
+      <c r="A43" s="6">
         <v>35</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="16">
+      <c r="A44" s="6">
         <v>36</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="16">
+      <c r="A45" s="6">
         <v>37</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="16">
+      <c r="A46" s="6">
         <v>38</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="16">
+      <c r="A47" s="6">
         <v>39</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="16">
+      <c r="A48" s="6">
         <v>40</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="16"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="16">
+      <c r="A49" s="6">
         <v>41</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="16"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="16">
+      <c r="A50" s="6">
         <v>42</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="16">
+      <c r="A51" s="6">
         <v>43</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="16">
+      <c r="A52" s="6">
         <v>44</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="16">
+      <c r="A53" s="6">
         <v>45</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="16">
+      <c r="A54" s="6">
         <v>46</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="16">
+      <c r="A55" s="6">
         <v>47</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="16">
+      <c r="A56" s="6">
         <v>48</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="16"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="16">
+      <c r="A57" s="6">
         <v>49</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="16">
+      <c r="A58" s="6">
         <v>50</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="16"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="16">
+      <c r="A59" s="6">
         <v>51</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="16"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="16">
+      <c r="A60" s="6">
         <v>52</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="16"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="16">
+      <c r="A61" s="6">
         <v>53</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="16"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="16">
+      <c r="A62" s="6">
         <v>54</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="16"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="16">
+      <c r="A63" s="6">
         <v>55</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="16"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="16">
+      <c r="A64" s="6">
         <v>56</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="16"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="16">
+      <c r="A65" s="6">
         <v>57</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="16"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="16">
+      <c r="A66" s="6">
         <v>58</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="16"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="16">
+      <c r="A67" s="6">
         <v>59</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="16"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="16">
+      <c r="A68" s="6">
         <v>60</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="16"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="16">
+      <c r="A69" s="6">
         <v>61</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="16"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="16">
+      <c r="A70" s="6">
         <v>62</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="16"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="16">
+      <c r="A71" s="6">
         <v>63</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="16"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="16">
+      <c r="A72" s="6">
         <v>64</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="16"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="16">
+      <c r="A73" s="6">
         <v>65</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="16"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="16">
+      <c r="A74" s="6">
         <v>66</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="16"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="16">
+      <c r="A75" s="6">
         <v>67</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="16"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="16">
+      <c r="A76" s="6">
         <v>68</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="16"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="16">
+      <c r="A77" s="6">
         <v>69</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="16"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="16">
+      <c r="A78" s="6">
         <v>70</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="16"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="16">
+      <c r="A79" s="6">
         <v>71</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="16"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="16">
+      <c r="A80" s="6">
         <v>72</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="16"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="16">
+      <c r="A81" s="6">
         <v>73</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="16"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="16">
+      <c r="A82" s="6">
         <v>74</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="16"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="16">
+      <c r="A83" s="6">
         <v>75</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="16"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="16">
+      <c r="A84" s="6">
         <v>76</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="16"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="16">
+      <c r="A85" s="6">
         <v>77</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="16"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="16">
+      <c r="A86" s="6">
         <v>78</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="16"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="16">
+      <c r="A87" s="6">
         <v>79</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="16"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="16">
+      <c r="A88" s="6">
         <v>80</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="16"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="16">
+      <c r="A89" s="6">
         <v>81</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="16"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="16">
+      <c r="A90" s="6">
         <v>82</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="16"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="16">
+      <c r="A91" s="6">
         <v>83</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="16"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="16">
+      <c r="A92" s="6">
         <v>84</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="16"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="16">
+      <c r="A93" s="6">
         <v>85</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="16"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="16">
+      <c r="A94" s="6">
         <v>86</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="16"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="16">
+      <c r="A95" s="6">
         <v>87</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="16"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="16">
+      <c r="A96" s="6">
         <v>88</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="16"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="16">
+      <c r="A97" s="6">
         <v>89</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="16"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="16">
+      <c r="A98" s="6">
         <v>90</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="16"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="16">
+      <c r="A99" s="6">
         <v>91</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="16"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="16">
+      <c r="A100" s="6">
         <v>92</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D100" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="16"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="16">
+      <c r="A101" s="6">
         <v>93</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="16"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="16">
+      <c r="A102" s="6">
         <v>94</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="16"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="16">
+      <c r="A103" s="6">
         <v>95</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="16"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="16">
+      <c r="A104" s="6">
         <v>96</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="16"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="16">
+      <c r="A105" s="6">
         <v>97</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="16"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="16">
+      <c r="A106" s="6">
         <v>98</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="16"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="16">
+      <c r="A107" s="6">
         <v>99</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="D107" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="16"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="16">
+      <c r="A108" s="6">
         <v>100</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="16"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="16">
+      <c r="A109" s="6">
         <v>101</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="16"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="16">
+      <c r="A110" s="6">
         <v>102</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="D110" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="16"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="16">
+      <c r="A111" s="6">
         <v>103</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="D111" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="16"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="16">
+      <c r="A112" s="6">
         <v>104</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D112" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="17">
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7">
         <v>1</v>
       </c>
-      <c r="I112" s="16" t="s">
+      <c r="I112" s="6" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="16">
+      <c r="A113" s="6">
         <v>105</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="16"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="16">
+      <c r="A114" s="6">
         <v>106</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="16" t="s">
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="6" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="16">
+      <c r="A115" s="6">
         <v>107</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="D115" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="16"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="16">
+      <c r="A116" s="6">
         <v>108</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D116" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="16"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="16">
+      <c r="A117" s="6">
         <v>109</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D117" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="19" t="s">
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="9" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="16">
+      <c r="A118" s="6">
         <v>110</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="D118" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="19" t="s">
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="16">
+      <c r="A119" s="6">
         <v>111</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="D119" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="19" t="s">
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="9" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="16">
+      <c r="A120" s="6">
         <v>112</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="D120" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="17">
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7">
         <v>0</v>
       </c>
-      <c r="I120" s="16" t="s">
+      <c r="I120" s="6" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="16">
+      <c r="A121" s="6">
         <v>113</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16" t="s">
+      <c r="F121" s="6"/>
+      <c r="G121" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="16">
+      <c r="A122" s="6">
         <v>114</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16" t="s">
+      <c r="F122" s="6"/>
+      <c r="G122" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19">
+        <v>41914</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>22</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>23</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>24</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>25</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>26</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>27</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>28</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>29</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>31</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>32</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>33</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>34</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>35</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>36</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>38</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>40</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>41</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <v>42</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
+        <v>43</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
+        <v>44</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <v>45</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>46</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <v>47</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
+        <v>49</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="6">
+        <v>50</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="6">
+        <v>51</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="6">
+        <v>52</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
+        <v>53</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="6">
+        <v>54</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
+        <v>55</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="6">
+        <v>56</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="6">
+        <v>57</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="6">
+        <v>58</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="6">
+        <v>59</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="6">
+        <v>60</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="6">
+        <v>61</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="6">
+        <v>62</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="6">
+        <v>63</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="6">
+        <v>64</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
+        <v>65</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="6">
+        <v>66</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="6">
+        <v>67</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
+        <v>68</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
+        <v>69</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
+        <v>70</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="6">
+        <v>71</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="6">
+        <v>72</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="6">
+        <v>73</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="6">
+        <v>74</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="6">
+        <v>75</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="6">
+        <v>76</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="6">
+        <v>77</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="6">
+        <v>78</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="6">
+        <v>79</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="6">
+        <v>80</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="6">
+        <v>81</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="6">
+        <v>82</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="6">
+        <v>83</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="6">
+        <v>84</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="6">
+        <v>85</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="6">
+        <v>86</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="6">
+        <v>87</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="6">
+        <v>88</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="6">
+        <v>89</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="6">
+        <v>90</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="6">
+        <v>91</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="6">
+        <v>92</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="6">
+        <v>93</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="6">
+        <v>94</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="6">
+        <v>95</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="6">
+        <v>96</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="6">
+        <v>97</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="6">
+        <v>98</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="6">
+        <v>99</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="6">
+        <v>100</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="6">
+        <v>101</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="6">
+        <v>102</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="6">
+        <v>103</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="6">
+        <v>104</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="6">
+        <v>105</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="6">
+        <v>106</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="6">
+        <v>107</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="6">
+        <v>108</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="6">
+        <v>109</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="6">
+        <v>110</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="6">
+        <v>111</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="6">
+        <v>112</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="6">
+        <v>113</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="6">
+        <v>114</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="6">
+        <v>115</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="6">
+        <v>116</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="6">
+        <v>117</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="6">
+        <v>118</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="6">
+        <v>119</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="6">
+        <v>120</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="6">
+        <v>121</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="6">
+        <v>122</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/docs/excel/テーブル定義書.xlsx
+++ b/docs/excel/テーブル定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="18" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <sheet name="image_categorys" sheetId="25" r:id="rId22"/>
     <sheet name="tokutens" sheetId="26" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="946">
   <si>
     <t>データベース名</t>
     <rPh sb="6" eb="7">
@@ -6309,6 +6309,14 @@
     <rPh sb="5" eb="7">
       <t>マドグチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(300)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6538,15 +6546,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6557,6 +6556,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6902,33 +6910,33 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="28">
         <v>41914</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
@@ -6961,11 +6969,11 @@
       <c r="E7" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="4" t="s">
         <v>772</v>
       </c>
@@ -7854,6 +7862,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -7870,44 +7916,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7976,47 +7984,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -8623,47 +8631,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -9114,47 +9122,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -9561,47 +9569,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -10038,47 +10046,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -10291,47 +10299,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -11177,47 +11185,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -12795,47 +12803,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13201,47 +13209,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13587,49 +13595,49 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>834</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <v>41936</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13865,8 +13873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -13898,47 +13906,47 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>41914</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -14342,7 +14350,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>944</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
@@ -14390,7 +14398,7 @@
         <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>945</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -15231,47 +15239,47 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>852</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>41914</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -15566,47 +15574,47 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>895</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -15891,47 +15899,47 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>909</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16114,47 +16122,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16523,47 +16531,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>849</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16972,47 +16980,47 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>731</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -17369,47 +17377,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41914</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -18608,47 +18616,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41914</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -19383,8 +19391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -19416,47 +19424,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -19794,47 +19802,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41914</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -20814,47 +20822,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>41935</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">

--- a/docs/excel/テーブル定義書.xlsx
+++ b/docs/excel/テーブル定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" tabRatio="1000" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="18" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <sheet name="image_categorys" sheetId="25" r:id="rId22"/>
     <sheet name="tokutens" sheetId="26" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="954">
   <si>
     <t>データベース名</t>
     <rPh sb="6" eb="7">
@@ -3256,33 +3256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイトID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>site_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>楽天に登録した際割り当てられるID</t>
-    <rPh sb="0" eb="2">
-      <t>ラクテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特典名</t>
     <rPh sb="0" eb="2">
       <t>トクテン</t>
@@ -3340,10 +3313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>申込方法</t>
     <rPh sb="0" eb="2">
       <t>モウシコミ</t>
@@ -3377,14 +3346,6 @@
     <rPh sb="5" eb="7">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>object</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6317,6 +6278,74 @@
   </si>
   <si>
     <t>varchar(300)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(10) unsigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privilege_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privilege_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特典順番</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tinyint(3) unsigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示順番</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privilege_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privilege_object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(27)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6467,7 +6496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6536,6 +6565,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6898,45 +6930,45 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="F3" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="29">
         <v>41914</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
@@ -6964,18 +6996,18 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+        <v>886</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="4" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -6984,22 +7016,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>788</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -7008,22 +7040,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>789</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -7032,22 +7064,22 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>790</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -7056,22 +7088,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>240</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -7080,22 +7112,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -7104,22 +7136,22 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>295</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>793</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -7128,22 +7160,22 @@
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>795</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -7152,22 +7184,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>388</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>796</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -7176,22 +7208,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -7200,22 +7232,22 @@
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>421</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -7224,22 +7256,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>827</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -7248,22 +7280,22 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>474</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>914</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -7272,22 +7304,22 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>828</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -7296,22 +7328,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -7320,22 +7352,22 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -7344,22 +7376,22 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -7368,22 +7400,22 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+        <v>887</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -7392,22 +7424,22 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
+        <v>885</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -7416,22 +7448,22 @@
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>866</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+        <v>888</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -7440,22 +7472,22 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>890</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+        <v>888</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -7464,22 +7496,22 @@
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>917</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+        <v>910</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -7491,9 +7523,9 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -7505,9 +7537,9 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -7519,9 +7551,9 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -7533,9 +7565,9 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -7547,9 +7579,9 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -7561,9 +7593,9 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -7575,9 +7607,9 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -7589,9 +7621,9 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -7603,9 +7635,9 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -7617,9 +7649,9 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -7631,9 +7663,9 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -7645,9 +7677,9 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -7659,9 +7691,9 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -7673,9 +7705,9 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -7687,9 +7719,9 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -7701,9 +7733,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -7715,9 +7747,9 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -7729,9 +7761,9 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -7743,9 +7775,9 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -7757,9 +7789,9 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -7771,9 +7803,9 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -7785,9 +7817,9 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -7799,9 +7831,9 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -7813,9 +7845,9 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -7827,9 +7859,9 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -7841,9 +7873,9 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="25"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -7855,13 +7887,51 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F51:H51"/>
@@ -7878,44 +7948,6 @@
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7972,59 +8004,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -8287,7 +8319,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="10"/>
       <c r="I18" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -8309,7 +8341,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="10"/>
       <c r="I19" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -8331,7 +8363,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="10"/>
       <c r="I20" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -8353,7 +8385,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="10"/>
       <c r="I21" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -8375,7 +8407,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="10"/>
       <c r="I22" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -8397,7 +8429,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="10"/>
       <c r="I23" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -8419,7 +8451,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="10"/>
       <c r="I24" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -8441,7 +8473,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="10"/>
       <c r="I25" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -8463,7 +8495,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="10"/>
       <c r="I26" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -8485,7 +8517,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="10"/>
       <c r="I27" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -8619,59 +8651,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>797</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -8741,10 +8773,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -8758,7 +8790,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="12"/>
       <c r="I10" s="6" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="112.5" x14ac:dyDescent="0.15">
@@ -8767,13 +8799,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>237</v>
@@ -8782,7 +8814,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="12"/>
       <c r="I11" s="13" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -8791,10 +8823,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>83</v>
@@ -8804,7 +8836,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -8813,10 +8845,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>38</v>
@@ -8833,10 +8865,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
@@ -8853,10 +8885,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>20</v>
@@ -8873,10 +8905,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>85</v>
@@ -8895,10 +8927,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>85</v>
@@ -8917,10 +8949,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>85</v>
@@ -8939,10 +8971,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>85</v>
@@ -8961,10 +8993,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>85</v>
@@ -8983,10 +9015,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>85</v>
@@ -9005,10 +9037,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>371</v>
@@ -9110,59 +9142,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -9264,7 +9296,7 @@
         <v>422</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
@@ -9286,7 +9318,7 @@
         <v>423</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -9557,59 +9589,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -9691,7 +9723,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="10"/>
@@ -9705,10 +9737,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>470</v>
@@ -9717,12 +9749,12 @@
         <v>237</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="16"/>
       <c r="I11" s="6" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -9803,7 +9835,7 @@
         <v>451</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -9825,7 +9857,7 @@
         <v>452</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -10034,59 +10066,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -10154,10 +10186,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -10166,12 +10198,12 @@
         <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="10"/>
       <c r="I10" s="6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -10183,7 +10215,7 @@
         <v>441</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>20</v>
@@ -10192,12 +10224,12 @@
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -10264,8 +10296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10287,59 +10319,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -10438,13 +10470,13 @@
         <v>426</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>230</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -10466,7 +10498,7 @@
         <v>288</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -10479,10 +10511,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>38</v>
@@ -10499,10 +10531,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>38</v>
@@ -10519,10 +10551,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -10539,10 +10571,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>38</v>
@@ -10559,10 +10591,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>38</v>
@@ -10579,10 +10611,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>38</v>
@@ -10602,13 +10634,13 @@
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10621,22 +10653,22 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="10"/>
       <c r="I20" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -10645,10 +10677,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>85</v>
@@ -10667,10 +10699,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>85</v>
@@ -10680,7 +10712,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -10689,10 +10721,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>85</v>
@@ -10711,10 +10743,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>85</v>
@@ -10724,7 +10756,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -10733,10 +10765,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>85</v>
@@ -10755,10 +10787,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>85</v>
@@ -10768,7 +10800,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -10777,10 +10809,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>85</v>
@@ -10799,10 +10831,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>85</v>
@@ -10812,7 +10844,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -10821,10 +10853,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>85</v>
@@ -10843,10 +10875,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>85</v>
@@ -10856,7 +10888,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -10865,10 +10897,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>85</v>
@@ -10887,10 +10919,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>85</v>
@@ -10900,7 +10932,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -10909,10 +10941,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>85</v>
@@ -10931,10 +10963,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>85</v>
@@ -10944,7 +10976,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -10956,19 +10988,19 @@
         <v>328</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -10980,19 +11012,19 @@
         <v>329</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -11004,13 +11036,13 @@
         <v>253</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>20</v>
+        <v>953</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -11023,10 +11055,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>85</v>
@@ -11045,13 +11077,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>21</v>
@@ -11067,10 +11099,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>38</v>
@@ -11173,59 +11205,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -11321,10 +11353,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
@@ -11344,7 +11376,7 @@
         <v>241</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>85</v>
@@ -11356,7 +11388,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -11368,7 +11400,7 @@
         <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>85</v>
@@ -11380,7 +11412,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -11392,7 +11424,7 @@
         <v>243</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>85</v>
@@ -11404,7 +11436,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -11416,7 +11448,7 @@
         <v>244</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>85</v>
@@ -11428,7 +11460,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -11440,10 +11472,10 @@
         <v>457</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>21</v>
@@ -11452,7 +11484,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="10"/>
       <c r="I16" s="6" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -11461,10 +11493,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>38</v>
@@ -11476,7 +11508,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="10"/>
       <c r="I17" s="6" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -11485,10 +11517,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>38</v>
@@ -11510,7 +11542,7 @@
         <v>426</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>83</v>
@@ -11529,10 +11561,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>86</v>
@@ -11551,10 +11583,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>38</v>
@@ -11574,7 +11606,7 @@
         <v>308</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>85</v>
@@ -11584,7 +11616,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -11596,7 +11628,7 @@
         <v>309</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>85</v>
@@ -11618,7 +11650,7 @@
         <v>310</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>85</v>
@@ -11628,7 +11660,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -11640,7 +11672,7 @@
         <v>311</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>85</v>
@@ -11662,7 +11694,7 @@
         <v>312</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>85</v>
@@ -11672,7 +11704,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -11684,7 +11716,7 @@
         <v>313</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>85</v>
@@ -11706,7 +11738,7 @@
         <v>314</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>85</v>
@@ -11716,7 +11748,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -11728,7 +11760,7 @@
         <v>315</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>85</v>
@@ -11750,7 +11782,7 @@
         <v>316</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>85</v>
@@ -11760,7 +11792,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -11772,7 +11804,7 @@
         <v>317</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>85</v>
@@ -11794,7 +11826,7 @@
         <v>318</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>85</v>
@@ -11804,7 +11836,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -11816,7 +11848,7 @@
         <v>319</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>85</v>
@@ -11838,7 +11870,7 @@
         <v>320</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>85</v>
@@ -11848,7 +11880,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -11860,7 +11892,7 @@
         <v>321</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>85</v>
@@ -11882,7 +11914,7 @@
         <v>322</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>85</v>
@@ -11892,7 +11924,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -11904,7 +11936,7 @@
         <v>323</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>85</v>
@@ -11926,7 +11958,7 @@
         <v>324</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>85</v>
@@ -11936,7 +11968,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -11948,7 +11980,7 @@
         <v>325</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>85</v>
@@ -11970,7 +12002,7 @@
         <v>326</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>85</v>
@@ -11980,7 +12012,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -11992,7 +12024,7 @@
         <v>327</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>85</v>
@@ -12011,10 +12043,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>38</v>
@@ -12031,10 +12063,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>85</v>
@@ -12044,7 +12076,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -12053,10 +12085,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>85</v>
@@ -12066,7 +12098,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -12075,20 +12107,20 @@
         <v>37</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -12097,10 +12129,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>87</v>
@@ -12117,10 +12149,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>87</v>
@@ -12137,10 +12169,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>87</v>
@@ -12157,10 +12189,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>371</v>
@@ -12177,10 +12209,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>430</v>
@@ -12197,10 +12229,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>86</v>
@@ -12217,10 +12249,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>87</v>
@@ -12240,7 +12272,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>87</v>
@@ -12260,7 +12292,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>86</v>
@@ -12277,10 +12309,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>104</v>
@@ -12299,10 +12331,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>104</v>
@@ -12321,10 +12353,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>104</v>
@@ -12343,10 +12375,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>85</v>
@@ -12358,7 +12390,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -12367,10 +12399,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>86</v>
@@ -12387,10 +12419,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>104</v>
@@ -12407,10 +12439,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>104</v>
@@ -12427,10 +12459,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>104</v>
@@ -12447,10 +12479,10 @@
         <v>55</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>85</v>
@@ -12460,7 +12492,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -12469,10 +12501,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>86</v>
@@ -12492,7 +12524,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>87</v>
@@ -12509,10 +12541,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>87</v>
@@ -12532,7 +12564,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>85</v>
@@ -12544,7 +12576,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -12553,20 +12585,20 @@
         <v>60</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -12575,10 +12607,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>85</v>
@@ -12595,20 +12627,20 @@
         <v>62</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -12617,20 +12649,20 @@
         <v>63</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -12639,20 +12671,20 @@
         <v>64</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -12661,10 +12693,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>95</v>
@@ -12683,10 +12715,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>95</v>
@@ -12791,59 +12823,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -12913,10 +12945,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -12930,7 +12962,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="10"/>
       <c r="I10" s="6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="112.5" x14ac:dyDescent="0.15">
@@ -12939,10 +12971,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>85</v>
@@ -12954,7 +12986,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="10"/>
       <c r="I11" s="13" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -12963,10 +12995,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>371</v>
@@ -12976,7 +13008,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="10"/>
       <c r="I12" s="13" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -12985,10 +13017,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>85</v>
@@ -12998,7 +13030,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -13007,13 +13039,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13027,20 +13059,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -13049,13 +13081,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13069,20 +13101,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="10"/>
       <c r="I17" s="6" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -13091,13 +13123,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -13197,59 +13229,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13319,10 +13351,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -13331,12 +13363,12 @@
         <v>237</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="12"/>
       <c r="I10" s="6" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -13344,24 +13376,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="12"/>
       <c r="I11" s="6" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -13370,10 +13402,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>470</v>
@@ -13383,7 +13415,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="12"/>
       <c r="I12" s="6" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -13392,10 +13424,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>470</v>
@@ -13405,7 +13437,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="12"/>
       <c r="I13" s="6" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -13414,10 +13446,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>470</v>
@@ -13427,7 +13459,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="12"/>
       <c r="I14" s="6" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -13436,10 +13468,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>470</v>
@@ -13449,7 +13481,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -13458,13 +13490,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13478,20 +13510,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -13583,61 +13615,61 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>834</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="30">
         <v>41936</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13705,13 +13737,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -13727,13 +13759,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -13742,7 +13774,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -13751,13 +13783,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -13773,16 +13805,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -13795,13 +13827,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -13894,59 +13926,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41914</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -14016,16 +14048,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -14033,7 +14065,7 @@
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="2" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -14227,7 +14259,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>83</v>
@@ -14350,7 +14382,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
@@ -14398,7 +14430,7 @@
         <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -14569,7 +14601,7 @@
         <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>85</v>
@@ -14583,7 +14615,7 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -14595,7 +14627,7 @@
         <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>85</v>
@@ -14607,7 +14639,7 @@
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="20" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -14655,7 +14687,7 @@
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="21" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -14859,7 +14891,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>85</v>
@@ -14882,13 +14914,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>21</v>
@@ -14975,7 +15007,7 @@
         <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>85</v>
@@ -14996,13 +15028,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>21</v>
@@ -15168,10 +15200,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>95</v>
@@ -15227,59 +15259,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41914</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -15345,10 +15377,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -15367,10 +15399,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -15382,7 +15414,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -15391,10 +15423,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
@@ -15406,7 +15438,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -15418,7 +15450,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
@@ -15437,10 +15469,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -15496,7 +15528,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -15562,59 +15594,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>895</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -15682,10 +15714,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -15695,7 +15727,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -15704,10 +15736,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -15724,10 +15756,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -15744,10 +15776,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -15764,13 +15796,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -15787,7 +15819,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -15799,7 +15831,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -15887,59 +15919,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>909</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16007,16 +16039,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -16085,10 +16117,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16110,59 +16142,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>918</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16228,24 +16260,26 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
-        <f t="shared" ref="A10:A20" si="0">ROW()-8</f>
+        <f t="shared" ref="A10:A22" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>475</v>
+      <c r="B10" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="16"/>
       <c r="I10" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -16253,11 +16287,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>481</v>
+      <c r="B11" s="2" t="s">
+        <v>944</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>482</v>
+        <v>942</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>85</v>
@@ -16267,31 +16301,27 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="6" t="s">
-        <v>483</v>
-      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>478</v>
+      <c r="B12" s="2" t="s">
+        <v>898</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>484</v>
+        <v>941</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -16299,22 +16329,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>479</v>
+      <c r="B13" s="2" t="s">
+        <v>947</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>488</v>
+        <v>945</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>371</v>
+        <v>946</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="8" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
@@ -16322,13 +16354,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>489</v>
+        <v>943</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>21</v>
@@ -16344,13 +16376,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>490</v>
+        <v>949</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>21</v>
@@ -16358,7 +16390,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
@@ -16366,13 +16398,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>491</v>
+        <v>950</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>21</v>
@@ -16388,13 +16420,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>21</v>
@@ -16410,22 +16442,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>951</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -16434,22 +16464,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>483</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>75</v>
+        <v>486</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>95</v>
+        <v>952</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -16458,13 +16486,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>4</v>
+        <v>487</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>488</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>21</v>
@@ -16475,6 +16503,54 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16519,59 +16595,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>849</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16641,10 +16717,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -16968,59 +17044,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -17088,19 +17164,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -17113,19 +17189,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -17139,17 +17215,17 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -17160,17 +17236,17 @@
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -17181,17 +17257,17 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -17202,17 +17278,17 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -17223,17 +17299,17 @@
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -17244,17 +17320,17 @@
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -17265,17 +17341,17 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -17365,59 +17441,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41914</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -18604,59 +18680,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41914</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -19391,8 +19467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -19412,59 +19488,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -19533,10 +19609,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -19545,12 +19621,12 @@
         <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="12"/>
       <c r="I10" s="6" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -19559,24 +19635,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="12"/>
       <c r="I11" s="6" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="112.5" x14ac:dyDescent="0.15">
@@ -19585,22 +19661,22 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -19612,19 +19688,19 @@
         <v>241</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="12"/>
       <c r="I13" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -19636,13 +19712,13 @@
         <v>242</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -19660,19 +19736,19 @@
         <v>243</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="12"/>
       <c r="I15" s="6" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -19684,13 +19760,13 @@
         <v>244</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -19790,59 +19866,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41914</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -20294,7 +20370,7 @@
         <v>310</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>378</v>
@@ -20810,59 +20886,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>774</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>41935</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -20930,10 +21006,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
@@ -20942,12 +21018,12 @@
         <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="12"/>
       <c r="I10" s="6" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -20956,24 +21032,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="12"/>
       <c r="I11" s="6" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="112.5" x14ac:dyDescent="0.15">
@@ -20981,10 +21057,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>85</v>
@@ -21007,7 +21083,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>375</v>
@@ -21026,7 +21102,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>85</v>
@@ -21044,10 +21120,10 @@
         <v>47</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>85</v>
@@ -21065,10 +21141,10 @@
         <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
@@ -21087,7 +21163,7 @@
         <v>241</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>85</v>
@@ -21108,7 +21184,7 @@
         <v>242</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>85</v>
@@ -21129,7 +21205,7 @@
         <v>243</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>85</v>
@@ -21150,7 +21226,7 @@
         <v>244</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>85</v>
@@ -21168,10 +21244,10 @@
         <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>375</v>
@@ -21187,10 +21263,10 @@
         <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>376</v>

--- a/docs/excel/テーブル定義書.xlsx
+++ b/docs/excel/テーブル定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" tabRatio="1000" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26820" windowHeight="15075" tabRatio="1000" firstSheet="7" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="18" r:id="rId1"/>
@@ -30,13 +30,15 @@
     <sheet name="images" sheetId="24" r:id="rId21"/>
     <sheet name="image_categorys" sheetId="25" r:id="rId22"/>
     <sheet name="tokutens" sheetId="26" r:id="rId23"/>
+    <sheet name="contents" sheetId="27" r:id="rId24"/>
+    <sheet name="holls" sheetId="28" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="1016">
   <si>
     <t>データベース名</t>
     <rPh sb="6" eb="7">
@@ -6346,6 +6348,386 @@
   </si>
   <si>
     <t>varchar(27)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=レギュラー 2=イレギュラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zexy_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mwed_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>park_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rakuten_name_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rakuten_name_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rakuten_name_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sugukon_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mynavi_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gnavi_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼクシィ項目名</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナビ項目名</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーク項目名</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天項目名1</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天項目名2</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天項目名3</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぐ婚項目名</t>
+    <rPh sb="2" eb="3">
+      <t>コン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐるナビ項目名</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼクシィID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パークID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天ID1</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天ID2</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天ID3</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぐ婚ID</t>
+    <rPh sb="2" eb="3">
+      <t>コン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナビID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐるナビID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zexy_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mwed_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>park_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rakuten_id_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rakuten_id_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rakuten_id_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sugukon_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(10) unsigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなの項目名</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel1_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel1_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel1_syubetsu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel1_tanto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel2_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel2_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel2_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel2_syubetsu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel2_tanto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquery_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquery_support_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号1種別</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=TEL 2=無料TEL</t>
+    <rPh sb="8" eb="10">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号1受付担当</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号2種別</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号2受付担当</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受付窓口</t>
+    <rPh sb="0" eb="2">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マドグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=TEL 2=無料TEL 3=FAX</t>
+    <rPh sb="8" eb="10">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>holls</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6496,7 +6878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6565,6 +6947,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6930,45 +7315,45 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="30">
         <v>41914</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>41935</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
@@ -7001,11 +7386,11 @@
       <c r="E7" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="4" t="s">
         <v>766</v>
       </c>
@@ -7027,11 +7412,11 @@
       <c r="E8" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>782</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -7051,11 +7436,11 @@
       <c r="E9" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -7075,11 +7460,11 @@
       <c r="E10" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -7099,11 +7484,11 @@
       <c r="E11" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -7123,11 +7508,11 @@
       <c r="E12" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>786</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -7147,11 +7532,11 @@
       <c r="E13" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="25" t="s">
         <v>787</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -7171,11 +7556,11 @@
       <c r="E14" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -7195,11 +7580,11 @@
       <c r="E15" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -7219,11 +7604,11 @@
       <c r="E16" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -7243,11 +7628,11 @@
       <c r="E17" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -7267,11 +7652,11 @@
       <c r="E18" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="25" t="s">
         <v>821</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -7291,11 +7676,11 @@
       <c r="E19" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -7315,11 +7700,11 @@
       <c r="E20" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -7339,11 +7724,11 @@
       <c r="E21" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -7363,11 +7748,11 @@
       <c r="E22" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>824</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -7387,11 +7772,11 @@
       <c r="E23" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>825</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -7411,11 +7796,11 @@
       <c r="E24" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>830</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -7435,11 +7820,11 @@
       <c r="E25" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="25" t="s">
         <v>847</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -7459,11 +7844,11 @@
       <c r="E26" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -7483,11 +7868,11 @@
       <c r="E27" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -7507,11 +7892,11 @@
       <c r="E28" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -7523,9 +7908,9 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -7537,9 +7922,9 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -7551,9 +7936,9 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -7565,9 +7950,9 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -7579,9 +7964,9 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -7593,9 +7978,9 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -7607,9 +7992,9 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -7621,9 +8006,9 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -7635,9 +8020,9 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -7649,9 +8034,9 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -7663,9 +8048,9 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -7677,9 +8062,9 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -7691,9 +8076,9 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -7705,9 +8090,9 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -7719,9 +8104,9 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -7733,9 +8118,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -7747,9 +8132,9 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -7761,9 +8146,9 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -7775,9 +8160,9 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -7789,9 +8174,9 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -7803,9 +8188,9 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -7817,9 +8202,9 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -7831,9 +8216,9 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -7845,9 +8230,9 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -7859,9 +8244,9 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -7873,9 +8258,9 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -7887,13 +8272,51 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -7910,44 +8333,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8004,59 +8389,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -8651,59 +9036,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>791</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -9142,59 +9527,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -9589,59 +9974,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -10066,59 +10451,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -10296,7 +10681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -10319,59 +10704,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -11205,59 +11590,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -12823,59 +13208,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13229,59 +13614,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13615,61 +14000,61 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>828</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>41935</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="31">
         <v>41936</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -13926,59 +14311,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>726</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>41914</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -15259,59 +15644,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>846</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>41914</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -15594,59 +15979,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>889</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>41935</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -15919,59 +16304,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>903</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>41935</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16120,7 +16505,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16142,59 +16527,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>912</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -16561,6 +16946,1122 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="30">
+        <v>41942</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <f t="shared" ref="A10:A30" si="0">ROW()-8</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="30">
+        <v>41942</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <f t="shared" ref="A10:A26" si="0">ROW()-8</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="6" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16595,59 +18096,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>843</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -17044,59 +18545,59 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="31">
         <v>41935</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -17441,59 +18942,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41914</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -18680,59 +20181,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41914</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -19488,59 +20989,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -19866,59 +21367,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41914</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -20886,59 +22387,59 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>768</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>41935</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
